--- a/airport_petty_algorithms/carrier_register_li/Звіт РТ.xlsx
+++ b/airport_petty_algorithms/carrier_register_li/Звіт РТ.xlsx
@@ -602,7 +602,7 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.13671875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.13671875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="7.87" customWidth="1" style="12" min="1" max="1"/>
     <col width="7" customWidth="1" style="12" min="2" max="2"/>
@@ -687,9 +687,7 @@
         </is>
       </c>
       <c r="D6" s="16" t="n"/>
-      <c r="E6" s="19" t="n">
-        <v>9349</v>
-      </c>
+      <c r="E6" s="19" t="n"/>
     </row>
     <row r="7" ht="30" customHeight="1" s="13">
       <c r="B7" s="19" t="n">
@@ -714,9 +712,7 @@
         </is>
       </c>
       <c r="D8" s="16" t="n"/>
-      <c r="E8" s="21" t="n">
-        <v>7925</v>
-      </c>
+      <c r="E8" s="21" t="n"/>
       <c r="G8" s="22" t="n"/>
     </row>
     <row r="9" ht="30" customHeight="1" s="13">
@@ -826,9 +822,7 @@
         </is>
       </c>
       <c r="D17" s="16" t="n"/>
-      <c r="E17" s="21" t="n">
-        <v>11440</v>
-      </c>
+      <c r="E17" s="21" t="n"/>
     </row>
     <row r="18" ht="30" customHeight="1" s="13">
       <c r="B18" s="21" t="n">
@@ -840,9 +834,7 @@
         </is>
       </c>
       <c r="D18" s="16" t="n"/>
-      <c r="E18" s="21" t="n">
-        <v>6439</v>
-      </c>
+      <c r="E18" s="21" t="n"/>
     </row>
     <row r="19" ht="30" customHeight="1" s="13">
       <c r="B19" s="19" t="n">
@@ -876,9 +868,7 @@
         </is>
       </c>
       <c r="D21" s="16" t="n"/>
-      <c r="E21" s="24" t="n">
-        <v>35153</v>
-      </c>
+      <c r="E21" s="24" t="n"/>
     </row>
     <row r="22" ht="30" customHeight="1" s="13">
       <c r="B22" s="25" t="n"/>
@@ -898,9 +888,7 @@
         </is>
       </c>
       <c r="D23" s="16" t="n"/>
-      <c r="E23" s="24" t="n">
-        <v>0</v>
-      </c>
+      <c r="E23" s="24" t="n"/>
     </row>
     <row r="24" ht="30" customHeight="1" s="13">
       <c r="B24" s="26" t="n"/>
@@ -910,9 +898,7 @@
         </is>
       </c>
       <c r="D24" s="16" t="n"/>
-      <c r="E24" s="24" t="n">
-        <v>422658</v>
-      </c>
+      <c r="E24" s="24" t="n"/>
     </row>
     <row r="25" ht="30" customHeight="1" s="13">
       <c r="B25" s="27" t="n"/>
@@ -978,7 +964,7 @@
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="8.710000000000001" customWidth="1" style="12" min="1" max="1024"/>
   </cols>
@@ -1001,7 +987,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="8.710000000000001" customWidth="1" style="12" min="1" max="1024"/>
   </cols>

--- a/airport_petty_algorithms/carrier_register_li/Звіт РТ.xlsx
+++ b/airport_petty_algorithms/carrier_register_li/Звіт РТ.xlsx
@@ -601,7 +601,7 @@
       <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="7.85546875" customWidth="1" style="2" min="1" max="1"/>
     <col width="7" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
@@ -642,7 +642,7 @@
     <row r="3" ht="30" customHeight="1" s="2">
       <c r="B3" s="14" t="inlineStr">
         <is>
-          <t>Дата: 23.08.2021</t>
+          <t>Дата: 24.08.2021</t>
         </is>
       </c>
       <c r="C3" s="20" t="n"/>
@@ -877,7 +877,9 @@
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
-      <c r="E21" s="9" t="n"/>
+      <c r="E21" s="9" t="n">
+        <v>77762</v>
+      </c>
     </row>
     <row r="22" ht="30" customHeight="1" s="2">
       <c r="B22" s="22" t="n"/>
@@ -898,7 +900,7 @@
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="9" t="n">
-        <v>500000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="24" ht="30" customHeight="1" s="2">
@@ -909,7 +911,9 @@
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
-      <c r="E24" s="9" t="n"/>
+      <c r="E24" s="9" t="n">
+        <v>742238</v>
+      </c>
     </row>
     <row r="25" ht="30" customHeight="1" s="2">
       <c r="B25" s="10" t="n"/>
@@ -974,7 +978,7 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="8.7109375" customWidth="1" style="2" min="1" max="1024"/>
   </cols>
@@ -996,7 +1000,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="8.7109375" customWidth="1" style="2" min="1" max="1024"/>
   </cols>

--- a/airport_petty_algorithms/carrier_register_li/Звіт РТ.xlsx
+++ b/airport_petty_algorithms/carrier_register_li/Звіт РТ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="0" windowWidth="19980" windowHeight="10920" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Лист1'!$B$1:$E$24</definedName>
@@ -900,7 +900,7 @@
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="9" t="n">
-        <v>120000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="24" ht="30" customHeight="1" s="2">
@@ -912,7 +912,7 @@
       </c>
       <c r="D24" s="21" t="n"/>
       <c r="E24" s="9" t="n">
-        <v>742238</v>
+        <v>902238</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" s="2">
